--- a/회계 엑셀.xlsx
+++ b/회계 엑셀.xlsx
@@ -138,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,11 +154,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,6 +612,12 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
@@ -508,11 +626,27 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:D21">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>"$B2 &lt;&gt; """""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D27">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:L22">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$G2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H40 J4:J40">
       <formula1>$B$3:$B$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>